--- a/medicine/Pharmacie/Fosinopril/Fosinopril.xlsx
+++ b/medicine/Pharmacie/Fosinopril/Fosinopril.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le fosinopril est un médicament, inhibiteur de l'enzyme de conversion de l'angiotensine utilisé comme vasodilatateur. 
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur de l'enzyme de conversion de l'angiotensine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur de l'enzyme de conversion de l'angiotensine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fosinopril est utilisé pour traiter l'hypertension artérielle, l'insuffisance cardiaque et la maladie rénale diabétique[2],[1]. C’est l’un des nombreux agents de première intention contre l’hypertension artérielle[1]. Le médicament  se prend par voie orale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fosinopril est utilisé pour traiter l'hypertension artérielle, l'insuffisance cardiaque et la maladie rénale diabétique,. C’est l’un des nombreux agents de première intention contre l’hypertension artérielle. Le médicament  se prend par voie orale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires du fosinopril comprennent la toux, les nausées ou les étourdissements[1]. D'autres effets secondaires peuvent inclure une hypotension artérielle, des problèmes hépatiques, des réactions allergiques, un taux élevé de potassium ou des problèmes rénaux[1]. L'utilisation pendant la grossesse, de ce médicament peut nuire au fœtus[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires du fosinopril comprennent la toux, les nausées ou les étourdissements. D'autres effets secondaires peuvent inclure une hypotension artérielle, des problèmes hépatiques, des réactions allergiques, un taux élevé de potassium ou des problèmes rénaux. L'utilisation pendant la grossesse, de ce médicament peut nuire au fœtus. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament  a été breveté en 1980 et approuvé pour un usage médical en 1991[3]. Il est disponible sous forme de médicament générique[2]. .
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament  a été breveté en 1980 et approuvé pour un usage médical en 1991. Il est disponible sous forme de médicament générique. .
 </t>
         </is>
       </c>
